--- a/biology/Botanique/Aciphylla/Aciphylla.xlsx
+++ b/biology/Botanique/Aciphylla/Aciphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aciphylla est un genre de plantes à fleurs de la famille des Apiaceae. Il comprend plus de quarante espèces principalement subalpines à alpines, endémiques de Nouvelle-Zélande et d'Australie. Aciphylla squarrosa est l'espèce type. La majorité d'entre elles se reconnaissent à leurs feuilles distinctement coriaces et/ou spinescentes, d'où le nom scientifique Aciphylla, de aki - « pointe » en grec, et phyllon « feuilles ». Certaines espèces sont largement cultivées ; les plus grandes sont appréciées comme ornementales en horticulture[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aciphylla est un genre de plantes à fleurs de la famille des Apiaceae. Il comprend plus de quarante espèces principalement subalpines à alpines, endémiques de Nouvelle-Zélande et d'Australie. Aciphylla squarrosa est l'espèce type. La majorité d'entre elles se reconnaissent à leurs feuilles distinctement coriaces et/ou spinescentes, d'où le nom scientifique Aciphylla, de aki - « pointe » en grec, et phyllon « feuilles ». Certaines espèces sont largement cultivées ; les plus grandes sont appréciées comme ornementales en horticulture. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (4 juin 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (4 juin 2021) :
 Aciphylla anomala Allan
 Aciphylla aurea W.R.B.Oliv.
 Aciphylla colensoi Hook.fil.
@@ -586,11 +600,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1775 par les naturalistes allemands Johann Reinhold Forster et Georg Forster[1], pour l'espèce type Aciphylla squarrosa[4].
-Le genre Coxella Cheeseman &amp; Hemsl. est synonyme de Aciphylla[3].
-Anisotome est le genre le plus proche de Aciphylla. Ces deux genres sont placés dans un groupe monophylétique avec les genres australasiens Gingidia, Scandia et Lignocarpa[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1775 par les naturalistes allemands Johann Reinhold Forster et Georg Forster, pour l'espèce type Aciphylla squarrosa.
+Le genre Coxella Cheeseman &amp; Hemsl. est synonyme de Aciphylla.
+Anisotome est le genre le plus proche de Aciphylla. Ces deux genres sont placés dans un groupe monophylétique avec les genres australasiens Gingidia, Scandia et Lignocarpa.
 </t>
         </is>
       </c>
